--- a/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/BIR2307_CV-2019-00001_ASIANLIFE & GENERAL ASSURANCE CORP_WC 160.xlsx
+++ b/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/BIR2307_CV-2019-00001_ASIANLIFE & GENERAL ASSURANCE CORP_WC 160.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Mizuho EPS\eps_source\ExpenseProcessingSystem\ExpenseProcessingSystem\wwwroot\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81982987-53F0-4905-8598-35054CD74ECA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79945F7-3CCD-49D9-A1E6-64626C4950AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-1590" windowWidth="24240" windowHeight="13140" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>EXP_TEST4, APPROVER</t>
+  </si>
+  <si>
+    <t>Sample / 123-131-312-312</t>
   </si>
   <si>
     <t xml:space="preserve">Signature over Printed Name of Payor/Payor’s Authorized Representative/Tax Agent </t>
@@ -717,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
@@ -943,6 +946,72 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,117 +1021,30 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="33" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="29" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="33" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="29" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="35" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,6 +1161,21 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7618,136 +7615,136 @@
   <sheetData>
     <row r="1" ht="6" customHeight="1"/>
     <row r="2" ht="11.25" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="146"/>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="146"/>
-      <c r="AJ2" s="146"/>
-      <c r="AK2" s="146"/>
-      <c r="AL2" s="146"/>
-      <c r="AM2" s="146"/>
-      <c r="AN2" s="146"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
     </row>
     <row r="3" ht="11.25" customHeight="1">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="146"/>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
-      <c r="AB4" s="147"/>
-      <c r="AC4" s="147"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="147"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="147"/>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="140"/>
+      <c r="AJ4" s="140"/>
+      <c r="AK4" s="140"/>
+      <c r="AL4" s="140"/>
+      <c r="AM4" s="140"/>
+      <c r="AN4" s="140"/>
     </row>
     <row r="5" ht="9.75" customHeight="1">
       <c r="A5" s="7"/>
@@ -7761,25 +7758,25 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="148" t="s">
+      <c r="L5" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2"/>
@@ -7805,23 +7802,23 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="149"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="142"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="5"/>
@@ -7847,23 +7844,23 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="142"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="5"/>
@@ -7889,23 +7886,23 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="5"/>
@@ -7931,23 +7928,23 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="150"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
       <c r="AC9" s="33"/>
       <c r="AD9" s="20"/>
       <c r="AE9" s="43"/>
@@ -8006,21 +8003,21 @@
       <c r="AN10" s="22"/>
     </row>
     <row r="11">
-      <c r="A11" s="142">
+      <c r="A11" s="135">
         <v>1</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="154" t="s">
+      <c r="H11" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="154"/>
+      <c r="I11" s="147"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
@@ -8029,20 +8026,20 @@
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
-      <c r="R11" s="156" t="s">
+      <c r="R11" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
-      <c r="Y11" s="152" t="s">
+      <c r="Y11" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="34"/>
@@ -8050,25 +8047,25 @@
       <c r="AF11" s="34"/>
       <c r="AG11" s="34"/>
       <c r="AH11" s="34"/>
-      <c r="AI11" s="158" t="s">
+      <c r="AI11" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="AJ11" s="158"/>
-      <c r="AK11" s="158"/>
-      <c r="AL11" s="158"/>
-      <c r="AM11" s="158"/>
-      <c r="AN11" s="159"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="151"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="152"/>
     </row>
     <row r="12" ht="12" s="56" customFormat="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
@@ -8077,16 +8074,16 @@
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
       <c r="V12" s="55"/>
       <c r="W12" s="55"/>
       <c r="X12" s="55"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="146"/>
       <c r="AB12" s="55"/>
       <c r="AC12" s="55"/>
       <c r="AD12" s="55"/>
@@ -8094,12 +8091,12 @@
       <c r="AF12" s="55"/>
       <c r="AG12" s="55"/>
       <c r="AH12" s="55"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="160"/>
-      <c r="AN12" s="161"/>
+      <c r="AI12" s="153"/>
+      <c r="AJ12" s="153"/>
+      <c r="AK12" s="153"/>
+      <c r="AL12" s="153"/>
+      <c r="AM12" s="153"/>
+      <c r="AN12" s="154"/>
     </row>
     <row r="13" ht="10.5" customHeight="1">
       <c r="A13" s="57" t="s">
@@ -8146,23 +8143,23 @@
       <c r="AN13" s="59"/>
     </row>
     <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="142">
+      <c r="A14" s="135">
         <v>2</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
@@ -8192,19 +8189,19 @@
       <c r="AN14" s="35"/>
     </row>
     <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="143"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -8672,23 +8669,23 @@
       <c r="AN25" s="59"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="142">
+      <c r="A26" s="135">
         <v>6</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -8718,19 +8715,19 @@
       <c r="AN26" s="35"/>
     </row>
     <row r="27" ht="11.25" customHeight="1">
-      <c r="A27" s="143"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -9024,648 +9021,648 @@
       <c r="AN33" s="30"/>
     </row>
     <row r="34" ht="10.5" customHeight="1">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="124"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="124"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="124"/>
-      <c r="X34" s="124"/>
-      <c r="Y34" s="124"/>
-      <c r="Z34" s="124"/>
-      <c r="AA34" s="124"/>
-      <c r="AB34" s="124"/>
-      <c r="AC34" s="124"/>
-      <c r="AD34" s="124"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="124"/>
-      <c r="AG34" s="124"/>
-      <c r="AH34" s="124"/>
-      <c r="AI34" s="124"/>
-      <c r="AJ34" s="124"/>
-      <c r="AK34" s="124"/>
-      <c r="AL34" s="124"/>
-      <c r="AM34" s="124"/>
-      <c r="AN34" s="125"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="117"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="117"/>
+      <c r="AH34" s="117"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="118"/>
     </row>
     <row r="35" ht="10.5" customHeight="1">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="132" t="s">
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="127"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="135" t="s">
+      <c r="M35" s="120"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="P35" s="136"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="136"/>
-      <c r="S35" s="136"/>
-      <c r="T35" s="136"/>
-      <c r="U35" s="136"/>
-      <c r="V35" s="136"/>
-      <c r="W35" s="136"/>
-      <c r="X35" s="136"/>
-      <c r="Y35" s="136"/>
-      <c r="Z35" s="136"/>
-      <c r="AA35" s="136"/>
-      <c r="AB35" s="136"/>
-      <c r="AC35" s="136"/>
-      <c r="AD35" s="136"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="136"/>
-      <c r="AG35" s="136"/>
-      <c r="AH35" s="137"/>
-      <c r="AI35" s="132" t="s">
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
+      <c r="AA35" s="129"/>
+      <c r="AB35" s="129"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="129"/>
+      <c r="AE35" s="129"/>
+      <c r="AF35" s="129"/>
+      <c r="AG35" s="129"/>
+      <c r="AH35" s="130"/>
+      <c r="AI35" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="AJ35" s="127"/>
-      <c r="AK35" s="127"/>
-      <c r="AL35" s="127"/>
-      <c r="AM35" s="127"/>
-      <c r="AN35" s="138"/>
+      <c r="AJ35" s="120"/>
+      <c r="AK35" s="120"/>
+      <c r="AL35" s="120"/>
+      <c r="AM35" s="120"/>
+      <c r="AN35" s="131"/>
     </row>
     <row r="36" ht="10.5" customHeight="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="141" t="s">
+      <c r="A36" s="122"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="141" t="s">
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="141" t="s">
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="141" t="s">
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="AE36" s="106"/>
-      <c r="AF36" s="106"/>
-      <c r="AG36" s="106"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="133"/>
-      <c r="AJ36" s="130"/>
-      <c r="AK36" s="130"/>
-      <c r="AL36" s="130"/>
-      <c r="AM36" s="130"/>
-      <c r="AN36" s="139"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="126"/>
+      <c r="AJ36" s="123"/>
+      <c r="AK36" s="123"/>
+      <c r="AL36" s="123"/>
+      <c r="AM36" s="123"/>
+      <c r="AN36" s="132"/>
     </row>
     <row r="37" ht="10.5" customHeight="1">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="134"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="134"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="109"/>
-      <c r="W37" s="109"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="134"/>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="134"/>
-      <c r="AE37" s="109"/>
-      <c r="AF37" s="109"/>
-      <c r="AG37" s="109"/>
-      <c r="AH37" s="110"/>
-      <c r="AI37" s="134"/>
-      <c r="AJ37" s="109"/>
-      <c r="AK37" s="109"/>
-      <c r="AL37" s="109"/>
-      <c r="AM37" s="109"/>
-      <c r="AN37" s="140"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="112"/>
+      <c r="W37" s="112"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="112"/>
+      <c r="AB37" s="112"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="127"/>
+      <c r="AE37" s="112"/>
+      <c r="AF37" s="112"/>
+      <c r="AG37" s="112"/>
+      <c r="AH37" s="113"/>
+      <c r="AI37" s="127"/>
+      <c r="AJ37" s="112"/>
+      <c r="AK37" s="112"/>
+      <c r="AL37" s="112"/>
+      <c r="AM37" s="112"/>
+      <c r="AN37" s="133"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="118" t="s">
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="84"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="121"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="121"/>
-      <c r="Y38" s="119">
+      <c r="M38" s="97"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="100"/>
+      <c r="W38" s="100"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="99">
         <v>1099313.3928571427</v>
       </c>
-      <c r="Z38" s="120"/>
-      <c r="AA38" s="120"/>
-      <c r="AB38" s="120"/>
-      <c r="AC38" s="121"/>
-      <c r="AD38" s="112">
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="100"/>
+      <c r="AB38" s="100"/>
+      <c r="AC38" s="101"/>
+      <c r="AD38" s="83">
         <f>SUM(O38:AC38)</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="122"/>
-      <c r="AI38" s="112">
+      <c r="AE38" s="84"/>
+      <c r="AF38" s="84"/>
+      <c r="AG38" s="84"/>
+      <c r="AH38" s="104"/>
+      <c r="AI38" s="83">
         <v>21986.267857142855</v>
       </c>
-      <c r="AJ38" s="113"/>
-      <c r="AK38" s="113"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="113"/>
-      <c r="AN38" s="114"/>
+      <c r="AJ38" s="84"/>
+      <c r="AK38" s="84"/>
+      <c r="AL38" s="84"/>
+      <c r="AM38" s="84"/>
+      <c r="AN38" s="85"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="104"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="157"/>
       <c r="L39" s="96"/>
       <c r="M39" s="97"/>
       <c r="N39" s="98"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120"/>
-      <c r="S39" s="121"/>
-      <c r="T39" s="119"/>
-      <c r="U39" s="120"/>
-      <c r="V39" s="120"/>
-      <c r="W39" s="120"/>
-      <c r="X39" s="121"/>
-      <c r="Y39" s="119"/>
-      <c r="Z39" s="120"/>
-      <c r="AA39" s="120"/>
-      <c r="AB39" s="120"/>
-      <c r="AC39" s="121"/>
-      <c r="AD39" s="112">
+      <c r="O39" s="99"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="100"/>
+      <c r="V39" s="100"/>
+      <c r="W39" s="100"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="99"/>
+      <c r="Z39" s="100"/>
+      <c r="AA39" s="100"/>
+      <c r="AB39" s="100"/>
+      <c r="AC39" s="101"/>
+      <c r="AD39" s="83">
         <f ref="AD39:AD47" t="shared" si="0">SUM(O39:AC39)</f>
         <v>0</v>
       </c>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="122"/>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="84"/>
+      <c r="AG39" s="84"/>
+      <c r="AH39" s="104"/>
       <c r="AI39" s="96"/>
       <c r="AJ39" s="97"/>
       <c r="AK39" s="97"/>
       <c r="AL39" s="97"/>
       <c r="AM39" s="97"/>
-      <c r="AN39" s="101"/>
+      <c r="AN39" s="115"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
       <c r="L40" s="96"/>
       <c r="M40" s="97"/>
       <c r="N40" s="98"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="121"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="121"/>
-      <c r="Y40" s="119"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="121"/>
-      <c r="AD40" s="112">
+      <c r="O40" s="99"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="100"/>
+      <c r="AC40" s="101"/>
+      <c r="AD40" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="122"/>
+      <c r="AE40" s="84"/>
+      <c r="AF40" s="84"/>
+      <c r="AG40" s="84"/>
+      <c r="AH40" s="104"/>
       <c r="AI40" s="96"/>
       <c r="AJ40" s="97"/>
       <c r="AK40" s="97"/>
       <c r="AL40" s="97"/>
       <c r="AM40" s="97"/>
-      <c r="AN40" s="101"/>
+      <c r="AN40" s="115"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="104"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="157"/>
       <c r="L41" s="96"/>
       <c r="M41" s="97"/>
       <c r="N41" s="98"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="120"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="120"/>
-      <c r="V41" s="120"/>
-      <c r="W41" s="120"/>
-      <c r="X41" s="121"/>
-      <c r="Y41" s="119"/>
-      <c r="Z41" s="120"/>
-      <c r="AA41" s="120"/>
-      <c r="AB41" s="120"/>
-      <c r="AC41" s="121"/>
-      <c r="AD41" s="112">
+      <c r="O41" s="99"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="100"/>
+      <c r="V41" s="100"/>
+      <c r="W41" s="100"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="100"/>
+      <c r="AA41" s="100"/>
+      <c r="AB41" s="100"/>
+      <c r="AC41" s="101"/>
+      <c r="AD41" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="122"/>
+      <c r="AE41" s="84"/>
+      <c r="AF41" s="84"/>
+      <c r="AG41" s="84"/>
+      <c r="AH41" s="104"/>
       <c r="AI41" s="96"/>
       <c r="AJ41" s="97"/>
       <c r="AK41" s="97"/>
       <c r="AL41" s="97"/>
       <c r="AM41" s="97"/>
-      <c r="AN41" s="101"/>
+      <c r="AN41" s="115"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="104"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="157"/>
       <c r="L42" s="96"/>
       <c r="M42" s="97"/>
       <c r="N42" s="98"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="119"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="120"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="119"/>
-      <c r="Z42" s="120"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="120"/>
-      <c r="AC42" s="121"/>
-      <c r="AD42" s="112">
+      <c r="O42" s="99"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="100"/>
+      <c r="AA42" s="100"/>
+      <c r="AB42" s="100"/>
+      <c r="AC42" s="101"/>
+      <c r="AD42" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="122"/>
+      <c r="AE42" s="84"/>
+      <c r="AF42" s="84"/>
+      <c r="AG42" s="84"/>
+      <c r="AH42" s="104"/>
       <c r="AI42" s="96"/>
       <c r="AJ42" s="97"/>
       <c r="AK42" s="97"/>
       <c r="AL42" s="97"/>
       <c r="AM42" s="97"/>
-      <c r="AN42" s="101"/>
+      <c r="AN42" s="115"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="102"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="104"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="157"/>
       <c r="L43" s="96"/>
       <c r="M43" s="97"/>
       <c r="N43" s="98"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="121"/>
-      <c r="AD43" s="112">
+      <c r="O43" s="99"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="100"/>
+      <c r="V43" s="100"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="101"/>
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="100"/>
+      <c r="AA43" s="100"/>
+      <c r="AB43" s="100"/>
+      <c r="AC43" s="101"/>
+      <c r="AD43" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="122"/>
+      <c r="AE43" s="84"/>
+      <c r="AF43" s="84"/>
+      <c r="AG43" s="84"/>
+      <c r="AH43" s="104"/>
       <c r="AI43" s="96"/>
       <c r="AJ43" s="97"/>
       <c r="AK43" s="97"/>
       <c r="AL43" s="97"/>
       <c r="AM43" s="97"/>
-      <c r="AN43" s="101"/>
+      <c r="AN43" s="115"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="102"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="104"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="157"/>
       <c r="L44" s="96"/>
       <c r="M44" s="97"/>
       <c r="N44" s="98"/>
-      <c r="O44" s="119"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="119"/>
-      <c r="U44" s="120"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="120"/>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="119"/>
-      <c r="Z44" s="120"/>
-      <c r="AA44" s="120"/>
-      <c r="AB44" s="120"/>
-      <c r="AC44" s="121"/>
-      <c r="AD44" s="112">
+      <c r="O44" s="99"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="101"/>
+      <c r="AD44" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="122"/>
+      <c r="AE44" s="84"/>
+      <c r="AF44" s="84"/>
+      <c r="AG44" s="84"/>
+      <c r="AH44" s="104"/>
       <c r="AI44" s="96"/>
       <c r="AJ44" s="97"/>
       <c r="AK44" s="97"/>
       <c r="AL44" s="97"/>
       <c r="AM44" s="97"/>
-      <c r="AN44" s="101"/>
+      <c r="AN44" s="115"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="104"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="157"/>
       <c r="L45" s="96"/>
       <c r="M45" s="97"/>
       <c r="N45" s="98"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="119"/>
-      <c r="U45" s="120"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="120"/>
-      <c r="X45" s="121"/>
-      <c r="Y45" s="119"/>
-      <c r="Z45" s="120"/>
-      <c r="AA45" s="120"/>
-      <c r="AB45" s="120"/>
-      <c r="AC45" s="121"/>
-      <c r="AD45" s="112">
+      <c r="O45" s="99"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="100"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="100"/>
+      <c r="V45" s="100"/>
+      <c r="W45" s="100"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="100"/>
+      <c r="AA45" s="100"/>
+      <c r="AB45" s="100"/>
+      <c r="AC45" s="101"/>
+      <c r="AD45" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="122"/>
+      <c r="AE45" s="84"/>
+      <c r="AF45" s="84"/>
+      <c r="AG45" s="84"/>
+      <c r="AH45" s="104"/>
       <c r="AI45" s="96"/>
       <c r="AJ45" s="97"/>
       <c r="AK45" s="97"/>
       <c r="AL45" s="97"/>
       <c r="AM45" s="97"/>
-      <c r="AN45" s="101"/>
+      <c r="AN45" s="115"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="104"/>
+      <c r="A46" s="155"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="157"/>
       <c r="L46" s="96"/>
       <c r="M46" s="97"/>
       <c r="N46" s="98"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="121"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="120"/>
-      <c r="V46" s="120"/>
-      <c r="W46" s="120"/>
-      <c r="X46" s="121"/>
-      <c r="Y46" s="119"/>
-      <c r="Z46" s="120"/>
-      <c r="AA46" s="120"/>
-      <c r="AB46" s="120"/>
-      <c r="AC46" s="121"/>
-      <c r="AD46" s="112">
+      <c r="O46" s="99"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="100"/>
+      <c r="AB46" s="100"/>
+      <c r="AC46" s="101"/>
+      <c r="AD46" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="113"/>
-      <c r="AF46" s="113"/>
-      <c r="AG46" s="113"/>
-      <c r="AH46" s="122"/>
+      <c r="AE46" s="84"/>
+      <c r="AF46" s="84"/>
+      <c r="AG46" s="84"/>
+      <c r="AH46" s="104"/>
       <c r="AI46" s="96"/>
       <c r="AJ46" s="97"/>
       <c r="AK46" s="97"/>
       <c r="AL46" s="97"/>
       <c r="AM46" s="97"/>
-      <c r="AN46" s="101"/>
+      <c r="AN46" s="115"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="102"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="104"/>
+      <c r="A47" s="155"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="157"/>
       <c r="L47" s="96"/>
       <c r="M47" s="97"/>
       <c r="N47" s="98"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="121"/>
-      <c r="T47" s="119"/>
-      <c r="U47" s="120"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="120"/>
-      <c r="X47" s="121"/>
-      <c r="Y47" s="119"/>
-      <c r="Z47" s="120"/>
-      <c r="AA47" s="120"/>
-      <c r="AB47" s="120"/>
-      <c r="AC47" s="121"/>
-      <c r="AD47" s="112">
+      <c r="O47" s="99"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="100"/>
+      <c r="W47" s="100"/>
+      <c r="X47" s="101"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="100"/>
+      <c r="AA47" s="100"/>
+      <c r="AB47" s="100"/>
+      <c r="AC47" s="101"/>
+      <c r="AD47" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="113"/>
-      <c r="AF47" s="113"/>
-      <c r="AG47" s="113"/>
-      <c r="AH47" s="122"/>
+      <c r="AE47" s="84"/>
+      <c r="AF47" s="84"/>
+      <c r="AG47" s="84"/>
+      <c r="AH47" s="104"/>
       <c r="AI47" s="96"/>
       <c r="AJ47" s="97"/>
       <c r="AK47" s="97"/>
       <c r="AL47" s="97"/>
       <c r="AM47" s="97"/>
-      <c r="AN47" s="101"/>
+      <c r="AN47" s="115"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="93" t="s">
@@ -9684,53 +9681,53 @@
       <c r="L48" s="96"/>
       <c r="M48" s="97"/>
       <c r="N48" s="98"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="121"/>
-      <c r="T48" s="119"/>
-      <c r="U48" s="120"/>
-      <c r="V48" s="120"/>
-      <c r="W48" s="120"/>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="119"/>
-      <c r="Z48" s="120"/>
-      <c r="AA48" s="120"/>
-      <c r="AB48" s="120"/>
-      <c r="AC48" s="121"/>
-      <c r="AD48" s="83">
+      <c r="O48" s="99"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="100"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="100"/>
+      <c r="AB48" s="100"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="105">
         <f>SUM(AD38:AH47)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="84"/>
-      <c r="AF48" s="84"/>
-      <c r="AG48" s="84"/>
-      <c r="AH48" s="111"/>
-      <c r="AI48" s="83">
+      <c r="AE48" s="106"/>
+      <c r="AF48" s="106"/>
+      <c r="AG48" s="106"/>
+      <c r="AH48" s="114"/>
+      <c r="AI48" s="105">
         <f>SUM(AI38:AN47)</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="84"/>
-      <c r="AK48" s="84"/>
-      <c r="AL48" s="84"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="85"/>
+      <c r="AJ48" s="106"/>
+      <c r="AK48" s="106"/>
+      <c r="AL48" s="106"/>
+      <c r="AM48" s="106"/>
+      <c r="AN48" s="107"/>
     </row>
     <row r="49" ht="10.5" customHeight="1">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="107"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="110"/>
       <c r="L49" s="24"/>
       <c r="M49" s="26"/>
       <c r="N49" s="39"/>
@@ -9762,17 +9759,17 @@
       <c r="AN49" s="27"/>
     </row>
     <row r="50" ht="10.5" customHeight="1">
-      <c r="A50" s="108"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="110"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="113"/>
       <c r="L50" s="25"/>
       <c r="M50" s="17"/>
       <c r="N50" s="38"/>
@@ -9804,417 +9801,417 @@
       <c r="AN50" s="18"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="104"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="157"/>
       <c r="L51" s="96" t="s">
         <v>29</v>
       </c>
       <c r="M51" s="97"/>
       <c r="N51" s="98"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="121"/>
-      <c r="T51" s="119"/>
-      <c r="U51" s="120"/>
-      <c r="V51" s="120"/>
-      <c r="W51" s="120"/>
-      <c r="X51" s="121"/>
-      <c r="Y51" s="119">
+      <c r="O51" s="99"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="101"/>
+      <c r="Y51" s="99">
         <v>1099313.3928571427</v>
       </c>
-      <c r="Z51" s="120"/>
-      <c r="AA51" s="120"/>
-      <c r="AB51" s="120"/>
-      <c r="AC51" s="121"/>
-      <c r="AD51" s="112">
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="101"/>
+      <c r="AD51" s="83">
         <f>SUM(O51:AC51)</f>
         <v>0</v>
       </c>
-      <c r="AE51" s="113"/>
-      <c r="AF51" s="113"/>
-      <c r="AG51" s="113"/>
-      <c r="AH51" s="122"/>
-      <c r="AI51" s="112">
+      <c r="AE51" s="84"/>
+      <c r="AF51" s="84"/>
+      <c r="AG51" s="84"/>
+      <c r="AH51" s="104"/>
+      <c r="AI51" s="83">
         <v>21986.267857142855</v>
       </c>
-      <c r="AJ51" s="113"/>
-      <c r="AK51" s="113"/>
-      <c r="AL51" s="113"/>
-      <c r="AM51" s="113"/>
-      <c r="AN51" s="114"/>
+      <c r="AJ51" s="84"/>
+      <c r="AK51" s="84"/>
+      <c r="AL51" s="84"/>
+      <c r="AM51" s="84"/>
+      <c r="AN51" s="85"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="102"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="104"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="157"/>
       <c r="L52" s="96"/>
       <c r="M52" s="97"/>
       <c r="N52" s="98"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="120"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="121"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="120"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="120"/>
-      <c r="X52" s="121"/>
-      <c r="Y52" s="119"/>
-      <c r="Z52" s="120"/>
-      <c r="AA52" s="120"/>
-      <c r="AB52" s="120"/>
-      <c r="AC52" s="121"/>
-      <c r="AD52" s="112">
+      <c r="O52" s="99"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="100"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="99"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="100"/>
+      <c r="AB52" s="100"/>
+      <c r="AC52" s="101"/>
+      <c r="AD52" s="83">
         <f ref="AD52:AD59" t="shared" si="1">SUM(O52:AC52)</f>
         <v>0</v>
       </c>
-      <c r="AE52" s="113"/>
-      <c r="AF52" s="113"/>
-      <c r="AG52" s="113"/>
-      <c r="AH52" s="122"/>
-      <c r="AI52" s="112"/>
-      <c r="AJ52" s="113"/>
-      <c r="AK52" s="113"/>
-      <c r="AL52" s="113"/>
-      <c r="AM52" s="113"/>
-      <c r="AN52" s="114"/>
+      <c r="AE52" s="84"/>
+      <c r="AF52" s="84"/>
+      <c r="AG52" s="84"/>
+      <c r="AH52" s="104"/>
+      <c r="AI52" s="83"/>
+      <c r="AJ52" s="84"/>
+      <c r="AK52" s="84"/>
+      <c r="AL52" s="84"/>
+      <c r="AM52" s="84"/>
+      <c r="AN52" s="85"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="104"/>
+      <c r="A53" s="155"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="157"/>
       <c r="L53" s="96"/>
       <c r="M53" s="97"/>
       <c r="N53" s="98"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="120"/>
-      <c r="S53" s="121"/>
-      <c r="T53" s="119"/>
-      <c r="U53" s="120"/>
-      <c r="V53" s="120"/>
-      <c r="W53" s="120"/>
-      <c r="X53" s="121"/>
-      <c r="Y53" s="119"/>
-      <c r="Z53" s="120"/>
-      <c r="AA53" s="120"/>
-      <c r="AB53" s="120"/>
-      <c r="AC53" s="121"/>
-      <c r="AD53" s="112">
+      <c r="O53" s="99"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="100"/>
+      <c r="V53" s="100"/>
+      <c r="W53" s="100"/>
+      <c r="X53" s="101"/>
+      <c r="Y53" s="99"/>
+      <c r="Z53" s="100"/>
+      <c r="AA53" s="100"/>
+      <c r="AB53" s="100"/>
+      <c r="AC53" s="101"/>
+      <c r="AD53" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="113"/>
-      <c r="AF53" s="113"/>
-      <c r="AG53" s="113"/>
-      <c r="AH53" s="122"/>
-      <c r="AI53" s="112"/>
-      <c r="AJ53" s="113"/>
-      <c r="AK53" s="113"/>
-      <c r="AL53" s="113"/>
-      <c r="AM53" s="113"/>
-      <c r="AN53" s="114"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="84"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="104"/>
+      <c r="AI53" s="83"/>
+      <c r="AJ53" s="84"/>
+      <c r="AK53" s="84"/>
+      <c r="AL53" s="84"/>
+      <c r="AM53" s="84"/>
+      <c r="AN53" s="85"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="102"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="104"/>
+      <c r="A54" s="155"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="157"/>
       <c r="L54" s="96"/>
       <c r="M54" s="97"/>
       <c r="N54" s="98"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="120"/>
-      <c r="S54" s="121"/>
-      <c r="T54" s="119"/>
-      <c r="U54" s="120"/>
-      <c r="V54" s="120"/>
-      <c r="W54" s="120"/>
-      <c r="X54" s="121"/>
-      <c r="Y54" s="119"/>
-      <c r="Z54" s="120"/>
-      <c r="AA54" s="120"/>
-      <c r="AB54" s="120"/>
-      <c r="AC54" s="121"/>
-      <c r="AD54" s="112">
+      <c r="O54" s="99"/>
+      <c r="P54" s="100"/>
+      <c r="Q54" s="100"/>
+      <c r="R54" s="100"/>
+      <c r="S54" s="101"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="100"/>
+      <c r="V54" s="100"/>
+      <c r="W54" s="100"/>
+      <c r="X54" s="101"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="100"/>
+      <c r="AA54" s="100"/>
+      <c r="AB54" s="100"/>
+      <c r="AC54" s="101"/>
+      <c r="AD54" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="113"/>
-      <c r="AF54" s="113"/>
-      <c r="AG54" s="113"/>
-      <c r="AH54" s="122"/>
-      <c r="AI54" s="112"/>
-      <c r="AJ54" s="113"/>
-      <c r="AK54" s="113"/>
-      <c r="AL54" s="113"/>
-      <c r="AM54" s="113"/>
-      <c r="AN54" s="114"/>
+      <c r="AE54" s="84"/>
+      <c r="AF54" s="84"/>
+      <c r="AG54" s="84"/>
+      <c r="AH54" s="104"/>
+      <c r="AI54" s="83"/>
+      <c r="AJ54" s="84"/>
+      <c r="AK54" s="84"/>
+      <c r="AL54" s="84"/>
+      <c r="AM54" s="84"/>
+      <c r="AN54" s="85"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="102"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="104"/>
+      <c r="A55" s="155"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="157"/>
       <c r="L55" s="96"/>
       <c r="M55" s="97"/>
       <c r="N55" s="98"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="121"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="121"/>
-      <c r="Y55" s="119"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120"/>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="121"/>
-      <c r="AD55" s="112">
+      <c r="O55" s="99"/>
+      <c r="P55" s="100"/>
+      <c r="Q55" s="100"/>
+      <c r="R55" s="100"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="100"/>
+      <c r="V55" s="100"/>
+      <c r="W55" s="100"/>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="100"/>
+      <c r="AA55" s="100"/>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="101"/>
+      <c r="AD55" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="113"/>
-      <c r="AF55" s="113"/>
-      <c r="AG55" s="113"/>
-      <c r="AH55" s="122"/>
-      <c r="AI55" s="112"/>
-      <c r="AJ55" s="113"/>
-      <c r="AK55" s="113"/>
-      <c r="AL55" s="113"/>
-      <c r="AM55" s="113"/>
-      <c r="AN55" s="114"/>
+      <c r="AE55" s="84"/>
+      <c r="AF55" s="84"/>
+      <c r="AG55" s="84"/>
+      <c r="AH55" s="104"/>
+      <c r="AI55" s="83"/>
+      <c r="AJ55" s="84"/>
+      <c r="AK55" s="84"/>
+      <c r="AL55" s="84"/>
+      <c r="AM55" s="84"/>
+      <c r="AN55" s="85"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="102"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="104"/>
+      <c r="A56" s="155"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="157"/>
       <c r="L56" s="96"/>
       <c r="M56" s="97"/>
       <c r="N56" s="98"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="120"/>
-      <c r="S56" s="121"/>
-      <c r="T56" s="119"/>
-      <c r="U56" s="120"/>
-      <c r="V56" s="120"/>
-      <c r="W56" s="120"/>
-      <c r="X56" s="121"/>
-      <c r="Y56" s="119"/>
-      <c r="Z56" s="120"/>
-      <c r="AA56" s="120"/>
-      <c r="AB56" s="120"/>
-      <c r="AC56" s="121"/>
-      <c r="AD56" s="112">
+      <c r="O56" s="99"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="100"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="101"/>
+      <c r="Y56" s="99"/>
+      <c r="Z56" s="100"/>
+      <c r="AA56" s="100"/>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="101"/>
+      <c r="AD56" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE56" s="113"/>
-      <c r="AF56" s="113"/>
-      <c r="AG56" s="113"/>
-      <c r="AH56" s="122"/>
-      <c r="AI56" s="112"/>
-      <c r="AJ56" s="113"/>
-      <c r="AK56" s="113"/>
-      <c r="AL56" s="113"/>
-      <c r="AM56" s="113"/>
-      <c r="AN56" s="114"/>
+      <c r="AE56" s="84"/>
+      <c r="AF56" s="84"/>
+      <c r="AG56" s="84"/>
+      <c r="AH56" s="104"/>
+      <c r="AI56" s="83"/>
+      <c r="AJ56" s="84"/>
+      <c r="AK56" s="84"/>
+      <c r="AL56" s="84"/>
+      <c r="AM56" s="84"/>
+      <c r="AN56" s="85"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="102"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="104"/>
+      <c r="A57" s="155"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="157"/>
       <c r="L57" s="96"/>
       <c r="M57" s="97"/>
       <c r="N57" s="98"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="120"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="121"/>
-      <c r="T57" s="119"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="121"/>
-      <c r="Y57" s="119"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="120"/>
-      <c r="AC57" s="121"/>
-      <c r="AD57" s="112">
+      <c r="O57" s="99"/>
+      <c r="P57" s="100"/>
+      <c r="Q57" s="100"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="100"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="100"/>
+      <c r="AA57" s="100"/>
+      <c r="AB57" s="100"/>
+      <c r="AC57" s="101"/>
+      <c r="AD57" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE57" s="113"/>
-      <c r="AF57" s="113"/>
-      <c r="AG57" s="113"/>
-      <c r="AH57" s="122"/>
-      <c r="AI57" s="112"/>
-      <c r="AJ57" s="113"/>
-      <c r="AK57" s="113"/>
-      <c r="AL57" s="113"/>
-      <c r="AM57" s="113"/>
-      <c r="AN57" s="114"/>
+      <c r="AE57" s="84"/>
+      <c r="AF57" s="84"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="104"/>
+      <c r="AI57" s="83"/>
+      <c r="AJ57" s="84"/>
+      <c r="AK57" s="84"/>
+      <c r="AL57" s="84"/>
+      <c r="AM57" s="84"/>
+      <c r="AN57" s="85"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="102"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="104"/>
+      <c r="A58" s="155"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="157"/>
       <c r="L58" s="96"/>
       <c r="M58" s="97"/>
       <c r="N58" s="98"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="121"/>
-      <c r="T58" s="119"/>
-      <c r="U58" s="120"/>
-      <c r="V58" s="120"/>
-      <c r="W58" s="120"/>
-      <c r="X58" s="121"/>
-      <c r="Y58" s="119"/>
-      <c r="Z58" s="120"/>
-      <c r="AA58" s="120"/>
-      <c r="AB58" s="120"/>
-      <c r="AC58" s="121"/>
-      <c r="AD58" s="112">
+      <c r="O58" s="99"/>
+      <c r="P58" s="100"/>
+      <c r="Q58" s="100"/>
+      <c r="R58" s="100"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="100"/>
+      <c r="V58" s="100"/>
+      <c r="W58" s="100"/>
+      <c r="X58" s="101"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="100"/>
+      <c r="AA58" s="100"/>
+      <c r="AB58" s="100"/>
+      <c r="AC58" s="101"/>
+      <c r="AD58" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE58" s="113"/>
-      <c r="AF58" s="113"/>
-      <c r="AG58" s="113"/>
-      <c r="AH58" s="122"/>
-      <c r="AI58" s="112"/>
-      <c r="AJ58" s="113"/>
-      <c r="AK58" s="113"/>
-      <c r="AL58" s="113"/>
-      <c r="AM58" s="113"/>
-      <c r="AN58" s="114"/>
+      <c r="AE58" s="84"/>
+      <c r="AF58" s="84"/>
+      <c r="AG58" s="84"/>
+      <c r="AH58" s="104"/>
+      <c r="AI58" s="83"/>
+      <c r="AJ58" s="84"/>
+      <c r="AK58" s="84"/>
+      <c r="AL58" s="84"/>
+      <c r="AM58" s="84"/>
+      <c r="AN58" s="85"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="102"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="104"/>
+      <c r="A59" s="155"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="157"/>
       <c r="L59" s="96"/>
       <c r="M59" s="97"/>
       <c r="N59" s="98"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="120"/>
-      <c r="R59" s="120"/>
-      <c r="S59" s="121"/>
-      <c r="T59" s="119"/>
-      <c r="U59" s="120"/>
-      <c r="V59" s="120"/>
-      <c r="W59" s="120"/>
-      <c r="X59" s="121"/>
-      <c r="Y59" s="119"/>
-      <c r="Z59" s="120"/>
-      <c r="AA59" s="120"/>
-      <c r="AB59" s="120"/>
-      <c r="AC59" s="121"/>
-      <c r="AD59" s="112">
+      <c r="O59" s="99"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="99"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="100"/>
+      <c r="W59" s="100"/>
+      <c r="X59" s="101"/>
+      <c r="Y59" s="99"/>
+      <c r="Z59" s="100"/>
+      <c r="AA59" s="100"/>
+      <c r="AB59" s="100"/>
+      <c r="AC59" s="101"/>
+      <c r="AD59" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE59" s="113"/>
-      <c r="AF59" s="113"/>
-      <c r="AG59" s="113"/>
-      <c r="AH59" s="122"/>
-      <c r="AI59" s="112"/>
-      <c r="AJ59" s="113"/>
-      <c r="AK59" s="113"/>
-      <c r="AL59" s="113"/>
-      <c r="AM59" s="113"/>
-      <c r="AN59" s="114"/>
+      <c r="AE59" s="84"/>
+      <c r="AF59" s="84"/>
+      <c r="AG59" s="84"/>
+      <c r="AH59" s="104"/>
+      <c r="AI59" s="83"/>
+      <c r="AJ59" s="84"/>
+      <c r="AK59" s="84"/>
+      <c r="AL59" s="84"/>
+      <c r="AM59" s="84"/>
+      <c r="AN59" s="85"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="93" t="s">
@@ -10233,35 +10230,35 @@
       <c r="L60" s="96"/>
       <c r="M60" s="97"/>
       <c r="N60" s="98"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="120"/>
-      <c r="Q60" s="120"/>
-      <c r="R60" s="120"/>
-      <c r="S60" s="121"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="120"/>
-      <c r="V60" s="120"/>
-      <c r="W60" s="120"/>
-      <c r="X60" s="121"/>
-      <c r="Y60" s="119"/>
-      <c r="Z60" s="120"/>
-      <c r="AA60" s="120"/>
-      <c r="AB60" s="120"/>
-      <c r="AC60" s="121"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="100"/>
+      <c r="Q60" s="100"/>
+      <c r="R60" s="100"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="100"/>
+      <c r="V60" s="100"/>
+      <c r="W60" s="100"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="100"/>
+      <c r="AA60" s="100"/>
+      <c r="AB60" s="100"/>
+      <c r="AC60" s="101"/>
       <c r="AD60" s="96"/>
       <c r="AE60" s="97"/>
       <c r="AF60" s="97"/>
       <c r="AG60" s="97"/>
       <c r="AH60" s="98"/>
-      <c r="AI60" s="112">
+      <c r="AI60" s="83">
         <f>SUM(AI50:AN59)</f>
         <v>0</v>
       </c>
-      <c r="AJ60" s="113"/>
-      <c r="AK60" s="113"/>
-      <c r="AL60" s="113"/>
-      <c r="AM60" s="113"/>
-      <c r="AN60" s="114"/>
+      <c r="AJ60" s="84"/>
+      <c r="AK60" s="84"/>
+      <c r="AL60" s="84"/>
+      <c r="AM60" s="84"/>
+      <c r="AN60" s="85"/>
     </row>
     <row r="61" ht="40.5" customHeight="1">
       <c r="A61" s="86" t="s">
@@ -10323,19 +10320,19 @@
       <c r="M62" s="45"/>
       <c r="N62" s="45"/>
       <c r="O62" s="45"/>
-      <c r="P62" s="99" t="s">
+      <c r="P62" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="99"/>
-      <c r="T62" s="99"/>
-      <c r="U62" s="99"/>
-      <c r="V62" s="99"/>
-      <c r="W62" s="99"/>
-      <c r="X62" s="99"/>
-      <c r="Y62" s="99"/>
-      <c r="Z62" s="99"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="102"/>
+      <c r="T62" s="102"/>
+      <c r="U62" s="102"/>
+      <c r="V62" s="102"/>
+      <c r="W62" s="102"/>
+      <c r="X62" s="102"/>
+      <c r="Y62" s="102"/>
+      <c r="Z62" s="102"/>
       <c r="AA62" s="45"/>
       <c r="AB62" s="45"/>
       <c r="AC62" s="45"/>
@@ -10367,17 +10364,17 @@
       <c r="M63" s="48"/>
       <c r="N63" s="48"/>
       <c r="O63" s="48"/>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="100"/>
-      <c r="R63" s="100"/>
-      <c r="S63" s="100"/>
-      <c r="T63" s="100"/>
-      <c r="U63" s="100"/>
-      <c r="V63" s="100"/>
-      <c r="W63" s="100"/>
-      <c r="X63" s="100"/>
-      <c r="Y63" s="100"/>
-      <c r="Z63" s="100"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="103"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="103"/>
+      <c r="T63" s="103"/>
+      <c r="U63" s="103"/>
+      <c r="V63" s="103"/>
+      <c r="W63" s="103"/>
+      <c r="X63" s="103"/>
+      <c r="Y63" s="103"/>
+      <c r="Z63" s="103"/>
       <c r="AA63" s="48"/>
       <c r="AB63" s="48"/>
       <c r="AC63" s="48"/>
@@ -10409,17 +10406,19 @@
       <c r="M64" s="50"/>
       <c r="N64" s="50"/>
       <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="50"/>
-      <c r="Z64" s="50"/>
+      <c r="P64" s="159" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q64" s="158"/>
+      <c r="R64" s="158"/>
+      <c r="S64" s="158"/>
+      <c r="T64" s="158"/>
+      <c r="U64" s="158"/>
+      <c r="V64" s="158"/>
+      <c r="W64" s="158"/>
+      <c r="X64" s="158"/>
+      <c r="Y64" s="158"/>
+      <c r="Z64" s="158"/>
       <c r="AA64" s="50"/>
       <c r="AB64" s="50"/>
       <c r="AC64" s="50"/>
@@ -10479,7 +10478,7 @@
     </row>
     <row r="66" ht="10.5" customHeight="1">
       <c r="A66" s="69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B66" s="70"/>
       <c r="C66" s="70"/>
@@ -10523,7 +10522,7 @@
     </row>
     <row r="67" ht="10.5" customHeight="1">
       <c r="A67" s="72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B67" s="73"/>
       <c r="C67" s="73"/>
@@ -10567,7 +10566,7 @@
     </row>
     <row r="68" ht="11.25" customHeight="1">
       <c r="A68" s="75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" s="76"/>
       <c r="C68" s="76"/>
@@ -10586,7 +10585,7 @@
       <c r="P68" s="26"/>
       <c r="Q68" s="40"/>
       <c r="R68" s="77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S68" s="77"/>
       <c r="T68" s="77"/>
@@ -10599,7 +10598,7 @@
       <c r="AA68" s="26"/>
       <c r="AB68" s="26"/>
       <c r="AC68" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD68" s="79"/>
       <c r="AE68" s="79"/>
@@ -10615,7 +10614,7 @@
     </row>
     <row r="69" ht="11.25" customHeight="1">
       <c r="A69" s="90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B69" s="91"/>
       <c r="C69" s="91"/>
@@ -10661,7 +10660,7 @@
     </row>
     <row r="70" ht="10.5" customHeight="1">
       <c r="A70" s="57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" s="58"/>
       <c r="C70" s="58"/>
@@ -10831,7 +10830,7 @@
     </row>
     <row r="74" ht="10.5" customHeight="1">
       <c r="A74" s="69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" s="70"/>
       <c r="C74" s="70"/>
@@ -10875,7 +10874,7 @@
     </row>
     <row r="75" ht="10.5" customHeight="1">
       <c r="A75" s="72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" s="73"/>
       <c r="C75" s="73"/>
@@ -10919,7 +10918,7 @@
     </row>
     <row r="76" ht="11.25" customHeight="1">
       <c r="A76" s="75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
@@ -10938,7 +10937,7 @@
       <c r="P76" s="26"/>
       <c r="Q76" s="40"/>
       <c r="R76" s="77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S76" s="77"/>
       <c r="T76" s="77"/>
@@ -10951,7 +10950,7 @@
       <c r="AA76" s="26"/>
       <c r="AB76" s="26"/>
       <c r="AC76" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD76" s="79"/>
       <c r="AE76" s="79"/>
@@ -10967,7 +10966,7 @@
     </row>
     <row r="77" ht="11.25" customHeight="1">
       <c r="A77" s="80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B77" s="81"/>
       <c r="C77" s="81"/>
@@ -11013,7 +11012,7 @@
     </row>
     <row r="78" ht="11.25" customHeight="1">
       <c r="A78" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -11280,6 +11279,7 @@
     <mergeCell ref="Y60:AC60"/>
     <mergeCell ref="AD60:AH60"/>
     <mergeCell ref="P62:Z63"/>
+    <mergeCell ref="P64:Z64"/>
     <mergeCell ref="A70:AN70"/>
     <mergeCell ref="A71:AN73"/>
     <mergeCell ref="A74:AN74"/>

--- a/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/BIR2307_CV-2019-00001_ASIANLIFE & GENERAL ASSURANCE CORP_WC 160.xlsx
+++ b/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplatesTempFolder/BIR2307_CV-2019-00001_ASIANLIFE & GENERAL ASSURANCE CORP_WC 160.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Mizuho EPS\eps_source\ExpenseProcessingSystem\ExpenseProcessingSystem\wwwroot\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79945F7-3CCD-49D9-A1E6-64626C4950AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5805D-61FE-4C34-B521-0826C60DB70C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-1590" windowWidth="24240" windowHeight="13140" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,18 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,18 +1173,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7291,6 +7291,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" descr="" name="sigImage"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7562,7 +7600,9 @@
   </sheetPr>
   <dimension ref="A2:AN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:K38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7609,142 +7649,148 @@
     <col min="41" max="41" width="2.7109375" customWidth="1" style="42"/>
     <col min="42" max="42" width="2.7109375" customWidth="1" style="42"/>
     <col min="43" max="43" width="2.7109375" customWidth="1" style="42"/>
-    <col min="44" max="51" width="2.7109375" customWidth="1" style="42"/>
+    <col min="44" max="44" width="2.7109375" customWidth="1" style="42"/>
+    <col min="45" max="45" width="2.7109375" customWidth="1" style="42"/>
+    <col min="46" max="46" width="2.7109375" customWidth="1" style="42"/>
+    <col min="47" max="47" width="2.7109375" customWidth="1" style="42"/>
+    <col min="48" max="48" width="2.7109375" customWidth="1" style="42"/>
+    <col min="49" max="49" width="2.7109375" customWidth="1" style="42"/>
+    <col min="50" max="51" width="2.7109375" customWidth="1" style="42"/>
     <col min="52" max="16384" width="9.140625" customWidth="1" style="42"/>
   </cols>
   <sheetData>
     <row r="1" ht="6" customHeight="1"/>
     <row r="2" ht="11.25" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143"/>
+      <c r="AN2" s="143"/>
     </row>
     <row r="3" ht="11.25" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="140"/>
-      <c r="W4" s="140"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="140"/>
-      <c r="Z4" s="140"/>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="140"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="140"/>
-      <c r="AH4" s="140"/>
-      <c r="AI4" s="140"/>
-      <c r="AJ4" s="140"/>
-      <c r="AK4" s="140"/>
-      <c r="AL4" s="140"/>
-      <c r="AM4" s="140"/>
-      <c r="AN4" s="140"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
     </row>
     <row r="5" ht="9.75" customHeight="1">
       <c r="A5" s="7"/>
@@ -7758,25 +7804,25 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="141" t="s">
+      <c r="L5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2"/>
@@ -7802,23 +7848,23 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="5"/>
@@ -7844,23 +7890,23 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="5"/>
@@ -7886,23 +7932,23 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="146"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="146"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="5"/>
@@ -7928,23 +7974,23 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
       <c r="AC9" s="33"/>
       <c r="AD9" s="20"/>
       <c r="AE9" s="43"/>
@@ -8003,21 +8049,21 @@
       <c r="AN10" s="22"/>
     </row>
     <row r="11">
-      <c r="A11" s="135">
+      <c r="A11" s="139">
         <v>1</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="147" t="s">
+      <c r="H11" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="147"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
@@ -8026,20 +8072,20 @@
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
-      <c r="R11" s="149" t="s">
+      <c r="R11" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
-      <c r="Y11" s="145" t="s">
+      <c r="Y11" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="145"/>
-      <c r="AA11" s="145"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="34"/>
@@ -8047,25 +8093,25 @@
       <c r="AF11" s="34"/>
       <c r="AG11" s="34"/>
       <c r="AH11" s="34"/>
-      <c r="AI11" s="151" t="s">
+      <c r="AI11" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="151"/>
-      <c r="AM11" s="151"/>
-      <c r="AN11" s="152"/>
+      <c r="AJ11" s="155"/>
+      <c r="AK11" s="155"/>
+      <c r="AL11" s="155"/>
+      <c r="AM11" s="155"/>
+      <c r="AN11" s="156"/>
     </row>
     <row r="12" ht="12" s="56" customFormat="1">
-      <c r="A12" s="144"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
@@ -8074,16 +8120,16 @@
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
       <c r="V12" s="55"/>
       <c r="W12" s="55"/>
       <c r="X12" s="55"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
       <c r="AB12" s="55"/>
       <c r="AC12" s="55"/>
       <c r="AD12" s="55"/>
@@ -8091,12 +8137,12 @@
       <c r="AF12" s="55"/>
       <c r="AG12" s="55"/>
       <c r="AH12" s="55"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="153"/>
-      <c r="AK12" s="153"/>
-      <c r="AL12" s="153"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="154"/>
+      <c r="AI12" s="157"/>
+      <c r="AJ12" s="157"/>
+      <c r="AK12" s="157"/>
+      <c r="AL12" s="157"/>
+      <c r="AM12" s="157"/>
+      <c r="AN12" s="158"/>
     </row>
     <row r="13" ht="10.5" customHeight="1">
       <c r="A13" s="57" t="s">
@@ -8143,23 +8189,23 @@
       <c r="AN13" s="59"/>
     </row>
     <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="135">
+      <c r="A14" s="139">
         <v>2</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
@@ -8189,19 +8235,19 @@
       <c r="AN14" s="35"/>
     </row>
     <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -8669,23 +8715,23 @@
       <c r="AN25" s="59"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="135">
+      <c r="A26" s="139">
         <v>6</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -8715,19 +8761,19 @@
       <c r="AN26" s="35"/>
     </row>
     <row r="27" ht="11.25" customHeight="1">
-      <c r="A27" s="136"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -9021,205 +9067,205 @@
       <c r="AN33" s="30"/>
     </row>
     <row r="34" ht="10.5" customHeight="1">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="118"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="121"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="121"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="121"/>
+      <c r="AL34" s="121"/>
+      <c r="AM34" s="121"/>
+      <c r="AN34" s="122"/>
     </row>
     <row r="35" ht="10.5" customHeight="1">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="125" t="s">
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="120"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="128" t="s">
+      <c r="M35" s="124"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-      <c r="U35" s="129"/>
-      <c r="V35" s="129"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="129"/>
-      <c r="Z35" s="129"/>
-      <c r="AA35" s="129"/>
-      <c r="AB35" s="129"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="129"/>
-      <c r="AE35" s="129"/>
-      <c r="AF35" s="129"/>
-      <c r="AG35" s="129"/>
-      <c r="AH35" s="130"/>
-      <c r="AI35" s="125" t="s">
+      <c r="P35" s="133"/>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="133"/>
+      <c r="U35" s="133"/>
+      <c r="V35" s="133"/>
+      <c r="W35" s="133"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="133"/>
+      <c r="Z35" s="133"/>
+      <c r="AA35" s="133"/>
+      <c r="AB35" s="133"/>
+      <c r="AC35" s="133"/>
+      <c r="AD35" s="133"/>
+      <c r="AE35" s="133"/>
+      <c r="AF35" s="133"/>
+      <c r="AG35" s="133"/>
+      <c r="AH35" s="134"/>
+      <c r="AI35" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="AJ35" s="120"/>
-      <c r="AK35" s="120"/>
-      <c r="AL35" s="120"/>
-      <c r="AM35" s="120"/>
-      <c r="AN35" s="131"/>
+      <c r="AJ35" s="124"/>
+      <c r="AK35" s="124"/>
+      <c r="AL35" s="124"/>
+      <c r="AM35" s="124"/>
+      <c r="AN35" s="135"/>
     </row>
     <row r="36" ht="10.5" customHeight="1">
-      <c r="A36" s="122"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="134" t="s">
+      <c r="A36" s="126"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="134" t="s">
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="109"/>
-      <c r="V36" s="109"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="134" t="s">
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="Z36" s="109"/>
-      <c r="AA36" s="109"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="134" t="s">
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="113"/>
+      <c r="AC36" s="114"/>
+      <c r="AD36" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="110"/>
-      <c r="AI36" s="126"/>
-      <c r="AJ36" s="123"/>
-      <c r="AK36" s="123"/>
-      <c r="AL36" s="123"/>
-      <c r="AM36" s="123"/>
-      <c r="AN36" s="132"/>
+      <c r="AE36" s="113"/>
+      <c r="AF36" s="113"/>
+      <c r="AG36" s="113"/>
+      <c r="AH36" s="114"/>
+      <c r="AI36" s="130"/>
+      <c r="AJ36" s="127"/>
+      <c r="AK36" s="127"/>
+      <c r="AL36" s="127"/>
+      <c r="AM36" s="127"/>
+      <c r="AN36" s="136"/>
     </row>
     <row r="37" ht="10.5" customHeight="1">
-      <c r="A37" s="111"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="112"/>
-      <c r="W37" s="112"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="112"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="127"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="113"/>
-      <c r="AI37" s="127"/>
-      <c r="AJ37" s="112"/>
-      <c r="AK37" s="112"/>
-      <c r="AL37" s="112"/>
-      <c r="AM37" s="112"/>
-      <c r="AN37" s="133"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="131"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="131"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="117"/>
+      <c r="AD37" s="131"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="117"/>
+      <c r="AI37" s="131"/>
+      <c r="AJ37" s="116"/>
+      <c r="AK37" s="116"/>
+      <c r="AL37" s="116"/>
+      <c r="AM37" s="116"/>
+      <c r="AN37" s="137"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="155" t="s">
+    <row r="38" ht="33" customHeight="1">
+      <c r="A38" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="157"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="107"/>
       <c r="L38" s="96" t="s">
         <v>29</v>
       </c>
@@ -9249,7 +9295,7 @@
       <c r="AE38" s="84"/>
       <c r="AF38" s="84"/>
       <c r="AG38" s="84"/>
-      <c r="AH38" s="104"/>
+      <c r="AH38" s="108"/>
       <c r="AI38" s="83">
         <v>21986.267857142855</v>
       </c>
@@ -9260,17 +9306,17 @@
       <c r="AN38" s="85"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="157"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="107"/>
       <c r="L39" s="96"/>
       <c r="M39" s="97"/>
       <c r="N39" s="98"/>
@@ -9296,26 +9342,26 @@
       <c r="AE39" s="84"/>
       <c r="AF39" s="84"/>
       <c r="AG39" s="84"/>
-      <c r="AH39" s="104"/>
+      <c r="AH39" s="108"/>
       <c r="AI39" s="96"/>
       <c r="AJ39" s="97"/>
       <c r="AK39" s="97"/>
       <c r="AL39" s="97"/>
       <c r="AM39" s="97"/>
-      <c r="AN39" s="115"/>
+      <c r="AN39" s="119"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="157"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="107"/>
       <c r="L40" s="96"/>
       <c r="M40" s="97"/>
       <c r="N40" s="98"/>
@@ -9341,26 +9387,26 @@
       <c r="AE40" s="84"/>
       <c r="AF40" s="84"/>
       <c r="AG40" s="84"/>
-      <c r="AH40" s="104"/>
+      <c r="AH40" s="108"/>
       <c r="AI40" s="96"/>
       <c r="AJ40" s="97"/>
       <c r="AK40" s="97"/>
       <c r="AL40" s="97"/>
       <c r="AM40" s="97"/>
-      <c r="AN40" s="115"/>
+      <c r="AN40" s="119"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="157"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="107"/>
       <c r="L41" s="96"/>
       <c r="M41" s="97"/>
       <c r="N41" s="98"/>
@@ -9386,26 +9432,26 @@
       <c r="AE41" s="84"/>
       <c r="AF41" s="84"/>
       <c r="AG41" s="84"/>
-      <c r="AH41" s="104"/>
+      <c r="AH41" s="108"/>
       <c r="AI41" s="96"/>
       <c r="AJ41" s="97"/>
       <c r="AK41" s="97"/>
       <c r="AL41" s="97"/>
       <c r="AM41" s="97"/>
-      <c r="AN41" s="115"/>
+      <c r="AN41" s="119"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="155"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="157"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="107"/>
       <c r="L42" s="96"/>
       <c r="M42" s="97"/>
       <c r="N42" s="98"/>
@@ -9431,26 +9477,26 @@
       <c r="AE42" s="84"/>
       <c r="AF42" s="84"/>
       <c r="AG42" s="84"/>
-      <c r="AH42" s="104"/>
+      <c r="AH42" s="108"/>
       <c r="AI42" s="96"/>
       <c r="AJ42" s="97"/>
       <c r="AK42" s="97"/>
       <c r="AL42" s="97"/>
       <c r="AM42" s="97"/>
-      <c r="AN42" s="115"/>
+      <c r="AN42" s="119"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="155"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="157"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="107"/>
       <c r="L43" s="96"/>
       <c r="M43" s="97"/>
       <c r="N43" s="98"/>
@@ -9476,26 +9522,26 @@
       <c r="AE43" s="84"/>
       <c r="AF43" s="84"/>
       <c r="AG43" s="84"/>
-      <c r="AH43" s="104"/>
+      <c r="AH43" s="108"/>
       <c r="AI43" s="96"/>
       <c r="AJ43" s="97"/>
       <c r="AK43" s="97"/>
       <c r="AL43" s="97"/>
       <c r="AM43" s="97"/>
-      <c r="AN43" s="115"/>
+      <c r="AN43" s="119"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="155"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="157"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="107"/>
       <c r="L44" s="96"/>
       <c r="M44" s="97"/>
       <c r="N44" s="98"/>
@@ -9521,26 +9567,26 @@
       <c r="AE44" s="84"/>
       <c r="AF44" s="84"/>
       <c r="AG44" s="84"/>
-      <c r="AH44" s="104"/>
+      <c r="AH44" s="108"/>
       <c r="AI44" s="96"/>
       <c r="AJ44" s="97"/>
       <c r="AK44" s="97"/>
       <c r="AL44" s="97"/>
       <c r="AM44" s="97"/>
-      <c r="AN44" s="115"/>
+      <c r="AN44" s="119"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="155"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="157"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="107"/>
       <c r="L45" s="96"/>
       <c r="M45" s="97"/>
       <c r="N45" s="98"/>
@@ -9566,26 +9612,26 @@
       <c r="AE45" s="84"/>
       <c r="AF45" s="84"/>
       <c r="AG45" s="84"/>
-      <c r="AH45" s="104"/>
+      <c r="AH45" s="108"/>
       <c r="AI45" s="96"/>
       <c r="AJ45" s="97"/>
       <c r="AK45" s="97"/>
       <c r="AL45" s="97"/>
       <c r="AM45" s="97"/>
-      <c r="AN45" s="115"/>
+      <c r="AN45" s="119"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="155"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="157"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="107"/>
       <c r="L46" s="96"/>
       <c r="M46" s="97"/>
       <c r="N46" s="98"/>
@@ -9611,26 +9657,26 @@
       <c r="AE46" s="84"/>
       <c r="AF46" s="84"/>
       <c r="AG46" s="84"/>
-      <c r="AH46" s="104"/>
+      <c r="AH46" s="108"/>
       <c r="AI46" s="96"/>
       <c r="AJ46" s="97"/>
       <c r="AK46" s="97"/>
       <c r="AL46" s="97"/>
       <c r="AM46" s="97"/>
-      <c r="AN46" s="115"/>
+      <c r="AN46" s="119"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="155"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="157"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="107"/>
       <c r="L47" s="96"/>
       <c r="M47" s="97"/>
       <c r="N47" s="98"/>
@@ -9656,13 +9702,13 @@
       <c r="AE47" s="84"/>
       <c r="AF47" s="84"/>
       <c r="AG47" s="84"/>
-      <c r="AH47" s="104"/>
+      <c r="AH47" s="108"/>
       <c r="AI47" s="96"/>
       <c r="AJ47" s="97"/>
       <c r="AK47" s="97"/>
       <c r="AL47" s="97"/>
       <c r="AM47" s="97"/>
-      <c r="AN47" s="115"/>
+      <c r="AN47" s="119"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="93" t="s">
@@ -9696,38 +9742,38 @@
       <c r="AA48" s="100"/>
       <c r="AB48" s="100"/>
       <c r="AC48" s="101"/>
-      <c r="AD48" s="105">
+      <c r="AD48" s="109">
         <f>SUM(AD38:AH47)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="106"/>
-      <c r="AF48" s="106"/>
-      <c r="AG48" s="106"/>
-      <c r="AH48" s="114"/>
-      <c r="AI48" s="105">
+      <c r="AE48" s="110"/>
+      <c r="AF48" s="110"/>
+      <c r="AG48" s="110"/>
+      <c r="AH48" s="118"/>
+      <c r="AI48" s="109">
         <f>SUM(AI38:AN47)</f>
         <v>0</v>
       </c>
-      <c r="AJ48" s="106"/>
-      <c r="AK48" s="106"/>
-      <c r="AL48" s="106"/>
-      <c r="AM48" s="106"/>
-      <c r="AN48" s="107"/>
+      <c r="AJ48" s="110"/>
+      <c r="AK48" s="110"/>
+      <c r="AL48" s="110"/>
+      <c r="AM48" s="110"/>
+      <c r="AN48" s="111"/>
     </row>
     <row r="49" ht="10.5" customHeight="1">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="110"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="114"/>
       <c r="L49" s="24"/>
       <c r="M49" s="26"/>
       <c r="N49" s="39"/>
@@ -9759,17 +9805,17 @@
       <c r="AN49" s="27"/>
     </row>
     <row r="50" ht="10.5" customHeight="1">
-      <c r="A50" s="111"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="113"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
       <c r="L50" s="25"/>
       <c r="M50" s="17"/>
       <c r="N50" s="38"/>
@@ -9800,20 +9846,20 @@
       <c r="AM50" s="17"/>
       <c r="AN50" s="18"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="155" t="s">
+    <row r="51" ht="33" customHeight="1">
+      <c r="A51" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="156"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="157"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="107"/>
       <c r="L51" s="96" t="s">
         <v>29</v>
       </c>
@@ -9843,7 +9889,7 @@
       <c r="AE51" s="84"/>
       <c r="AF51" s="84"/>
       <c r="AG51" s="84"/>
-      <c r="AH51" s="104"/>
+      <c r="AH51" s="108"/>
       <c r="AI51" s="83">
         <v>21986.267857142855</v>
       </c>
@@ -9854,17 +9900,17 @@
       <c r="AN51" s="85"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="155"/>
-      <c r="B52" s="156"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="157"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="107"/>
       <c r="L52" s="96"/>
       <c r="M52" s="97"/>
       <c r="N52" s="98"/>
@@ -9890,7 +9936,7 @@
       <c r="AE52" s="84"/>
       <c r="AF52" s="84"/>
       <c r="AG52" s="84"/>
-      <c r="AH52" s="104"/>
+      <c r="AH52" s="108"/>
       <c r="AI52" s="83"/>
       <c r="AJ52" s="84"/>
       <c r="AK52" s="84"/>
@@ -9899,17 +9945,17 @@
       <c r="AN52" s="85"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="155"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="157"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="107"/>
       <c r="L53" s="96"/>
       <c r="M53" s="97"/>
       <c r="N53" s="98"/>
@@ -9935,7 +9981,7 @@
       <c r="AE53" s="84"/>
       <c r="AF53" s="84"/>
       <c r="AG53" s="84"/>
-      <c r="AH53" s="104"/>
+      <c r="AH53" s="108"/>
       <c r="AI53" s="83"/>
       <c r="AJ53" s="84"/>
       <c r="AK53" s="84"/>
@@ -9944,17 +9990,17 @@
       <c r="AN53" s="85"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="155"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="156"/>
-      <c r="K54" s="157"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="107"/>
       <c r="L54" s="96"/>
       <c r="M54" s="97"/>
       <c r="N54" s="98"/>
@@ -9980,7 +10026,7 @@
       <c r="AE54" s="84"/>
       <c r="AF54" s="84"/>
       <c r="AG54" s="84"/>
-      <c r="AH54" s="104"/>
+      <c r="AH54" s="108"/>
       <c r="AI54" s="83"/>
       <c r="AJ54" s="84"/>
       <c r="AK54" s="84"/>
@@ -9989,17 +10035,17 @@
       <c r="AN54" s="85"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="155"/>
-      <c r="B55" s="156"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="157"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="107"/>
       <c r="L55" s="96"/>
       <c r="M55" s="97"/>
       <c r="N55" s="98"/>
@@ -10025,7 +10071,7 @@
       <c r="AE55" s="84"/>
       <c r="AF55" s="84"/>
       <c r="AG55" s="84"/>
-      <c r="AH55" s="104"/>
+      <c r="AH55" s="108"/>
       <c r="AI55" s="83"/>
       <c r="AJ55" s="84"/>
       <c r="AK55" s="84"/>
@@ -10034,17 +10080,17 @@
       <c r="AN55" s="85"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="155"/>
-      <c r="B56" s="156"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="157"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="107"/>
       <c r="L56" s="96"/>
       <c r="M56" s="97"/>
       <c r="N56" s="98"/>
@@ -10070,7 +10116,7 @@
       <c r="AE56" s="84"/>
       <c r="AF56" s="84"/>
       <c r="AG56" s="84"/>
-      <c r="AH56" s="104"/>
+      <c r="AH56" s="108"/>
       <c r="AI56" s="83"/>
       <c r="AJ56" s="84"/>
       <c r="AK56" s="84"/>
@@ -10079,17 +10125,17 @@
       <c r="AN56" s="85"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="155"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="157"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="107"/>
       <c r="L57" s="96"/>
       <c r="M57" s="97"/>
       <c r="N57" s="98"/>
@@ -10115,7 +10161,7 @@
       <c r="AE57" s="84"/>
       <c r="AF57" s="84"/>
       <c r="AG57" s="84"/>
-      <c r="AH57" s="104"/>
+      <c r="AH57" s="108"/>
       <c r="AI57" s="83"/>
       <c r="AJ57" s="84"/>
       <c r="AK57" s="84"/>
@@ -10124,17 +10170,17 @@
       <c r="AN57" s="85"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="155"/>
-      <c r="B58" s="156"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="157"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="107"/>
       <c r="L58" s="96"/>
       <c r="M58" s="97"/>
       <c r="N58" s="98"/>
@@ -10160,7 +10206,7 @@
       <c r="AE58" s="84"/>
       <c r="AF58" s="84"/>
       <c r="AG58" s="84"/>
-      <c r="AH58" s="104"/>
+      <c r="AH58" s="108"/>
       <c r="AI58" s="83"/>
       <c r="AJ58" s="84"/>
       <c r="AK58" s="84"/>
@@ -10169,17 +10215,17 @@
       <c r="AN58" s="85"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="155"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="157"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="107"/>
       <c r="L59" s="96"/>
       <c r="M59" s="97"/>
       <c r="N59" s="98"/>
@@ -10205,7 +10251,7 @@
       <c r="AE59" s="84"/>
       <c r="AF59" s="84"/>
       <c r="AG59" s="84"/>
-      <c r="AH59" s="104"/>
+      <c r="AH59" s="108"/>
       <c r="AI59" s="83"/>
       <c r="AJ59" s="84"/>
       <c r="AK59" s="84"/>
@@ -10409,16 +10455,16 @@
       <c r="P64" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="Q64" s="158"/>
-      <c r="R64" s="158"/>
-      <c r="S64" s="158"/>
-      <c r="T64" s="158"/>
-      <c r="U64" s="158"/>
-      <c r="V64" s="158"/>
-      <c r="W64" s="158"/>
-      <c r="X64" s="158"/>
-      <c r="Y64" s="158"/>
-      <c r="Z64" s="158"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
+      <c r="Y64" s="104"/>
+      <c r="Z64" s="104"/>
       <c r="AA64" s="50"/>
       <c r="AB64" s="50"/>
       <c r="AC64" s="50"/>
